--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Tlr2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H2">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I2">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J2">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.73680229749199</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N2">
-        <v>1.73680229749199</v>
+        <v>2.951542</v>
       </c>
       <c r="O2">
-        <v>0.005637604245418366</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P2">
-        <v>0.005637604245418366</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q2">
-        <v>3.670236680319278</v>
+        <v>2.927751587632667</v>
       </c>
       <c r="R2">
-        <v>3.670236680319278</v>
+        <v>26.349764288694</v>
       </c>
       <c r="S2">
-        <v>1.230018855377432E-05</v>
+        <v>9.236509938833382E-06</v>
       </c>
       <c r="T2">
-        <v>1.230018855377432E-05</v>
+        <v>9.236509938833384E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H3">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I3">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J3">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>66.25474500985931</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N3">
-        <v>66.25474500985931</v>
+        <v>5.3792</v>
       </c>
       <c r="O3">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P3">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q3">
-        <v>140.0105214805013</v>
+        <v>5.335841854933333</v>
       </c>
       <c r="R3">
-        <v>140.0105214805013</v>
+        <v>48.0225766944</v>
       </c>
       <c r="S3">
-        <v>0.0004692220049341949</v>
+        <v>1.683358538112367E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004692220049341949</v>
+        <v>1.683358538112368E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H4">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I4">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J4">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>92.69930650757991</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N4">
-        <v>92.69930650757991</v>
+        <v>233.556772</v>
       </c>
       <c r="O4">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P4">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q4">
-        <v>195.8935657072669</v>
+        <v>231.6742265654227</v>
       </c>
       <c r="R4">
-        <v>195.8935657072669</v>
+        <v>2085.068039088804</v>
       </c>
       <c r="S4">
-        <v>0.0006565047446643017</v>
+        <v>0.0007308889542685964</v>
       </c>
       <c r="T4">
-        <v>0.0006565047446643017</v>
+        <v>0.0007308889542685967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H5">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I5">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J5">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.383679601187</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N5">
-        <v>147.383679601187</v>
+        <v>278.767883</v>
       </c>
       <c r="O5">
-        <v>0.4784026708306816</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P5">
-        <v>0.4784026708306816</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q5">
-        <v>311.4534036106636</v>
+        <v>276.5209209403924</v>
       </c>
       <c r="R5">
-        <v>311.4534036106636</v>
+        <v>2488.688288463532</v>
       </c>
       <c r="S5">
-        <v>0.001043784345208135</v>
+        <v>0.0008723719066023935</v>
       </c>
       <c r="T5">
-        <v>0.001043784345208135</v>
+        <v>0.0008723719066023937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>955.877218092839</v>
+        <v>2.975819</v>
       </c>
       <c r="H6">
-        <v>955.877218092839</v>
+        <v>8.927457</v>
       </c>
       <c r="I6">
-        <v>0.9869055881334357</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J6">
-        <v>0.9869055881334357</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73680229749199</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N6">
-        <v>1.73680229749199</v>
+        <v>450.652352</v>
       </c>
       <c r="O6">
-        <v>0.005637604245418366</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P6">
-        <v>0.005637604245418366</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q6">
-        <v>1660.169748503895</v>
+        <v>447.0199438254294</v>
       </c>
       <c r="R6">
-        <v>1660.169748503895</v>
+        <v>4023.179494428864</v>
       </c>
       <c r="S6">
-        <v>0.005563783133488167</v>
+        <v>0.001410264508587931</v>
       </c>
       <c r="T6">
-        <v>0.005563783133488167</v>
+        <v>0.001410264508587932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H7">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I7">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J7">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>66.25474500985931</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N7">
-        <v>66.25474500985931</v>
+        <v>2.951542</v>
       </c>
       <c r="O7">
-        <v>0.2150607655724942</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P7">
-        <v>0.2150607655724942</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q7">
-        <v>63331.40134547473</v>
+        <v>943.1181716286929</v>
       </c>
       <c r="R7">
-        <v>63331.40134547473</v>
+        <v>8488.063544658236</v>
       </c>
       <c r="S7">
-        <v>0.2122446713317493</v>
+        <v>0.002975361845089618</v>
       </c>
       <c r="T7">
-        <v>0.2122446713317493</v>
+        <v>0.002975361845089618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H8">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I8">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J8">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>92.69930650757991</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N8">
-        <v>92.69930650757991</v>
+        <v>5.3792</v>
       </c>
       <c r="O8">
-        <v>0.300898959351406</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P8">
-        <v>0.300898959351406</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q8">
-        <v>88609.15522360089</v>
+        <v>1718.837566541511</v>
       </c>
       <c r="R8">
-        <v>88609.15522360089</v>
+        <v>15469.5380988736</v>
       </c>
       <c r="S8">
-        <v>0.2969588644474381</v>
+        <v>0.005422611786349668</v>
       </c>
       <c r="T8">
-        <v>0.2969588644474381</v>
+        <v>0.005422611786349669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H9">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I9">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J9">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>147.383679601187</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N9">
-        <v>147.383679601187</v>
+        <v>233.556772</v>
       </c>
       <c r="O9">
-        <v>0.4784026708306816</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P9">
-        <v>0.4784026708306816</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q9">
-        <v>140880.7016494689</v>
+        <v>74629.34146969262</v>
       </c>
       <c r="R9">
-        <v>140880.7016494689</v>
+        <v>671664.0732272336</v>
       </c>
       <c r="S9">
-        <v>0.4721382692207602</v>
+        <v>0.235441646458392</v>
       </c>
       <c r="T9">
-        <v>0.4721382692207602</v>
+        <v>0.235441646458392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.512721692407331</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H10">
-        <v>0.512721692407331</v>
+        <v>2875.806458</v>
       </c>
       <c r="I10">
-        <v>0.0005293649579844697</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J10">
-        <v>0.0005293649579844697</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.73680229749199</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N10">
-        <v>1.73680229749199</v>
+        <v>278.767883</v>
       </c>
       <c r="O10">
-        <v>0.005637604245418366</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P10">
-        <v>0.005637604245418366</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q10">
-        <v>0.890496213347034</v>
+        <v>89075.83091270985</v>
       </c>
       <c r="R10">
-        <v>0.890496213347034</v>
+        <v>801682.4782143885</v>
       </c>
       <c r="S10">
-        <v>2.984350134508961E-06</v>
+        <v>0.2810176249277858</v>
       </c>
       <c r="T10">
-        <v>2.984350134508961E-06</v>
+        <v>0.2810176249277859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.512721692407331</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H11">
-        <v>0.512721692407331</v>
+        <v>2875.806458</v>
       </c>
       <c r="I11">
-        <v>0.0005293649579844697</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J11">
-        <v>0.0005293649579844697</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.25474500985931</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N11">
-        <v>66.25474500985931</v>
+        <v>450.652352</v>
       </c>
       <c r="O11">
-        <v>0.2150607655724942</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P11">
-        <v>0.2150607655724942</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q11">
-        <v>33.97024499147123</v>
+        <v>143998.7715771655</v>
       </c>
       <c r="R11">
-        <v>33.97024499147123</v>
+        <v>1295988.944194489</v>
       </c>
       <c r="S11">
-        <v>0.0001138456331313912</v>
+        <v>0.4542892540714976</v>
       </c>
       <c r="T11">
-        <v>0.0001138456331313912</v>
+        <v>0.4542892540714976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H12">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I12">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J12">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>92.69930650757991</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N12">
-        <v>92.69930650757991</v>
+        <v>2.951542</v>
       </c>
       <c r="O12">
-        <v>0.300898959351406</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P12">
-        <v>0.300898959351406</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q12">
-        <v>47.52894531755229</v>
+        <v>0.5118747787902223</v>
       </c>
       <c r="R12">
-        <v>47.52894531755229</v>
+        <v>4.606873009112001</v>
       </c>
       <c r="S12">
-        <v>0.0001592853649746277</v>
+        <v>1.614869410951959E-06</v>
       </c>
       <c r="T12">
-        <v>0.0001592853649746277</v>
+        <v>1.614869410951959E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H13">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I13">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J13">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.383679601187</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N13">
-        <v>147.383679601187</v>
+        <v>5.3792</v>
       </c>
       <c r="O13">
-        <v>0.4784026708306816</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P13">
-        <v>0.4784026708306816</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q13">
-        <v>75.56680963834043</v>
+        <v>0.9328943345777777</v>
       </c>
       <c r="R13">
-        <v>75.56680963834043</v>
+        <v>8.396049011200001</v>
       </c>
       <c r="S13">
-        <v>0.0002532496097439418</v>
+        <v>2.943107546967916E-06</v>
       </c>
       <c r="T13">
-        <v>0.0002532496097439418</v>
+        <v>2.943107546967916E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>10.0567860832655</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H14">
-        <v>10.0567860832655</v>
+        <v>1.560836</v>
       </c>
       <c r="I14">
-        <v>0.01038323562521951</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J14">
-        <v>0.01038323562521951</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.73680229749199</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N14">
-        <v>1.73680229749199</v>
+        <v>233.556772</v>
       </c>
       <c r="O14">
-        <v>0.005637604245418366</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P14">
-        <v>0.005637604245418366</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q14">
-        <v>17.46664917480099</v>
+        <v>40.50486864237688</v>
       </c>
       <c r="R14">
-        <v>17.46664917480099</v>
+        <v>364.543817781392</v>
       </c>
       <c r="S14">
-        <v>5.853657324191676E-05</v>
+        <v>0.0001277853023346715</v>
       </c>
       <c r="T14">
-        <v>5.853657324191676E-05</v>
+        <v>0.0001277853023346715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>10.0567860832655</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H15">
-        <v>10.0567860832655</v>
+        <v>1.560836</v>
       </c>
       <c r="I15">
-        <v>0.01038323562521951</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J15">
-        <v>0.01038323562521951</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>66.25474500985931</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N15">
-        <v>66.25474500985931</v>
+        <v>278.767883</v>
       </c>
       <c r="O15">
-        <v>0.2150607655724942</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P15">
-        <v>0.2150607655724942</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q15">
-        <v>666.3097975654574</v>
+        <v>48.34566082557645</v>
       </c>
       <c r="R15">
-        <v>666.3097975654574</v>
+        <v>435.1109474301881</v>
       </c>
       <c r="S15">
-        <v>0.002233026602679304</v>
+        <v>0.0001525215385762881</v>
       </c>
       <c r="T15">
-        <v>0.002233026602679304</v>
+        <v>0.0001525215385762882</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>10.0567860832655</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H16">
-        <v>10.0567860832655</v>
+        <v>1.560836</v>
       </c>
       <c r="I16">
-        <v>0.01038323562521951</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J16">
-        <v>0.01038323562521951</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>92.69930650757991</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N16">
-        <v>92.69930650757991</v>
+        <v>450.652352</v>
       </c>
       <c r="O16">
-        <v>0.300898959351406</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P16">
-        <v>0.300898959351406</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q16">
-        <v>932.2570956137926</v>
+        <v>78.15493494291911</v>
       </c>
       <c r="R16">
-        <v>932.2570956137926</v>
+        <v>703.394414486272</v>
       </c>
       <c r="S16">
-        <v>0.003124304794328997</v>
+        <v>0.0002465642359886306</v>
       </c>
       <c r="T16">
-        <v>0.003124304794328997</v>
+        <v>0.0002465642359886307</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.432248333333333</v>
+      </c>
+      <c r="H17">
+        <v>4.296745</v>
+      </c>
+      <c r="I17">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="J17">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.9838473333333334</v>
+      </c>
+      <c r="N17">
+        <v>2.951542</v>
+      </c>
+      <c r="O17">
+        <v>0.00303873000399588</v>
+      </c>
+      <c r="P17">
+        <v>0.003038730003995881</v>
+      </c>
+      <c r="Q17">
+        <v>1.409113703421111</v>
+      </c>
+      <c r="R17">
+        <v>12.68202333079</v>
+      </c>
+      <c r="S17">
+        <v>4.445490792857656E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.445490792857658E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.432248333333333</v>
+      </c>
+      <c r="H18">
+        <v>4.296745</v>
+      </c>
+      <c r="I18">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="J18">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.793066666666667</v>
+      </c>
+      <c r="N18">
+        <v>5.3792</v>
+      </c>
+      <c r="O18">
+        <v>0.005538100571665468</v>
+      </c>
+      <c r="P18">
+        <v>0.005538100571665469</v>
+      </c>
+      <c r="Q18">
+        <v>2.568116744888888</v>
+      </c>
+      <c r="R18">
+        <v>23.113050704</v>
+      </c>
+      <c r="S18">
+        <v>8.101929118047415E-06</v>
+      </c>
+      <c r="T18">
+        <v>8.101929118047418E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.432248333333333</v>
+      </c>
+      <c r="H19">
+        <v>4.296745</v>
+      </c>
+      <c r="I19">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="J19">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>77.85225733333333</v>
+      </c>
+      <c r="N19">
+        <v>233.556772</v>
+      </c>
+      <c r="O19">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="P19">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="Q19">
+        <v>111.5037658119044</v>
+      </c>
+      <c r="R19">
+        <v>1003.53389230714</v>
+      </c>
+      <c r="S19">
+        <v>0.0003517735744690588</v>
+      </c>
+      <c r="T19">
+        <v>0.0003517735744690589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.432248333333333</v>
+      </c>
+      <c r="H20">
+        <v>4.296745</v>
+      </c>
+      <c r="I20">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="J20">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>92.92262766666668</v>
+      </c>
+      <c r="N20">
+        <v>278.767883</v>
+      </c>
+      <c r="O20">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="P20">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="Q20">
+        <v>133.0882786045372</v>
+      </c>
+      <c r="R20">
+        <v>1197.794507440835</v>
+      </c>
+      <c r="S20">
+        <v>0.0004198686846471846</v>
+      </c>
+      <c r="T20">
+        <v>0.0004198686846471847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.432248333333333</v>
+      </c>
+      <c r="H21">
+        <v>4.296745</v>
+      </c>
+      <c r="I21">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="J21">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>150.2174506666667</v>
+      </c>
+      <c r="N21">
+        <v>450.652352</v>
+      </c>
+      <c r="O21">
+        <v>0.4639645390083261</v>
+      </c>
+      <c r="P21">
+        <v>0.4639645390083262</v>
+      </c>
+      <c r="Q21">
+        <v>215.1486933549155</v>
+      </c>
+      <c r="R21">
+        <v>1936.33824019424</v>
+      </c>
+      <c r="S21">
+        <v>0.0006787539806635473</v>
+      </c>
+      <c r="T21">
+        <v>0.0006787539806635475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.293185</v>
+      </c>
+      <c r="I22">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J22">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.9838473333333334</v>
+      </c>
+      <c r="N22">
+        <v>2.951542</v>
+      </c>
+      <c r="O22">
+        <v>0.00303873000399588</v>
+      </c>
+      <c r="P22">
+        <v>0.003038730003995881</v>
+      </c>
+      <c r="Q22">
+        <v>0.7520479823633334</v>
+      </c>
+      <c r="R22">
+        <v>6.76843184127</v>
+      </c>
+      <c r="S22">
+        <v>2.372571051765763E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.372571051765764E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.293185</v>
+      </c>
+      <c r="I23">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J23">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.793066666666667</v>
+      </c>
+      <c r="N23">
+        <v>5.3792</v>
+      </c>
+      <c r="O23">
+        <v>0.005538100571665468</v>
+      </c>
+      <c r="P23">
+        <v>0.005538100571665469</v>
+      </c>
+      <c r="Q23">
+        <v>1.370611194666667</v>
+      </c>
+      <c r="R23">
+        <v>12.335500752</v>
+      </c>
+      <c r="S23">
+        <v>4.324022562327893E-06</v>
+      </c>
+      <c r="T23">
+        <v>4.324022562327894E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.293185</v>
+      </c>
+      <c r="I24">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J24">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>77.85225733333333</v>
+      </c>
+      <c r="N24">
+        <v>233.556772</v>
+      </c>
+      <c r="O24">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="P24">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="Q24">
+        <v>59.50987624431333</v>
+      </c>
+      <c r="R24">
+        <v>535.58888619882</v>
+      </c>
+      <c r="S24">
+        <v>0.0001877425549733178</v>
+      </c>
+      <c r="T24">
+        <v>0.0001877425549733179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H25">
+        <v>2.293185</v>
+      </c>
+      <c r="I25">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J25">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>92.92262766666668</v>
+      </c>
+      <c r="N25">
+        <v>278.767883</v>
+      </c>
+      <c r="O25">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="P25">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="Q25">
+        <v>71.02959197526168</v>
+      </c>
+      <c r="R25">
+        <v>639.2663277773551</v>
+      </c>
+      <c r="S25">
+        <v>0.0002240851085188099</v>
+      </c>
+      <c r="T25">
+        <v>0.00022408510851881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.293185</v>
+      </c>
+      <c r="I26">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J26">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>150.2174506666667</v>
+      </c>
+      <c r="N26">
+        <v>450.652352</v>
+      </c>
+      <c r="O26">
+        <v>0.4639645390083261</v>
+      </c>
+      <c r="P26">
+        <v>0.4639645390083262</v>
+      </c>
+      <c r="Q26">
+        <v>114.8254682023467</v>
+      </c>
+      <c r="R26">
+        <v>1033.42921382112</v>
+      </c>
+      <c r="S26">
+        <v>0.0003622529256793076</v>
+      </c>
+      <c r="T26">
+        <v>0.0003622529256793078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>10.0567860832655</v>
-      </c>
-      <c r="H17">
-        <v>10.0567860832655</v>
-      </c>
-      <c r="I17">
-        <v>0.01038323562521951</v>
-      </c>
-      <c r="J17">
-        <v>0.01038323562521951</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>147.383679601187</v>
-      </c>
-      <c r="N17">
-        <v>147.383679601187</v>
-      </c>
-      <c r="O17">
-        <v>0.4784026708306816</v>
-      </c>
-      <c r="P17">
-        <v>0.4784026708306816</v>
-      </c>
-      <c r="Q17">
-        <v>1482.206137913679</v>
-      </c>
-      <c r="R17">
-        <v>1482.206137913679</v>
-      </c>
-      <c r="S17">
-        <v>0.004967367654969297</v>
-      </c>
-      <c r="T17">
-        <v>0.004967367654969297</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.723214</v>
+      </c>
+      <c r="H27">
+        <v>44.169642</v>
+      </c>
+      <c r="I27">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J27">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.9838473333333334</v>
+      </c>
+      <c r="N27">
+        <v>2.951542</v>
+      </c>
+      <c r="O27">
+        <v>0.00303873000399588</v>
+      </c>
+      <c r="P27">
+        <v>0.003038730003995881</v>
+      </c>
+      <c r="Q27">
+        <v>14.485394831996</v>
+      </c>
+      <c r="R27">
+        <v>130.368553487964</v>
+      </c>
+      <c r="S27">
+        <v>4.569871771185372E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.569871771185372E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14.723214</v>
+      </c>
+      <c r="H28">
+        <v>44.169642</v>
+      </c>
+      <c r="I28">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J28">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.793066666666667</v>
+      </c>
+      <c r="N28">
+        <v>5.3792</v>
+      </c>
+      <c r="O28">
+        <v>0.005538100571665468</v>
+      </c>
+      <c r="P28">
+        <v>0.005538100571665469</v>
+      </c>
+      <c r="Q28">
+        <v>26.3997042496</v>
+      </c>
+      <c r="R28">
+        <v>237.5973382464</v>
+      </c>
+      <c r="S28">
+        <v>8.328614070733314E-05</v>
+      </c>
+      <c r="T28">
+        <v>8.328614070733316E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14.723214</v>
+      </c>
+      <c r="H29">
+        <v>44.169642</v>
+      </c>
+      <c r="I29">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J29">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>77.85225733333333</v>
+      </c>
+      <c r="N29">
+        <v>233.556772</v>
+      </c>
+      <c r="O29">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="P29">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="Q29">
+        <v>1146.235445101736</v>
+      </c>
+      <c r="R29">
+        <v>10316.11900591563</v>
+      </c>
+      <c r="S29">
+        <v>0.003616158941095799</v>
+      </c>
+      <c r="T29">
+        <v>0.0036161589410958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>14.723214</v>
+      </c>
+      <c r="H30">
+        <v>44.169642</v>
+      </c>
+      <c r="I30">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J30">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>92.92262766666668</v>
+      </c>
+      <c r="N30">
+        <v>278.767883</v>
+      </c>
+      <c r="O30">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="P30">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="Q30">
+        <v>1368.119732578654</v>
+      </c>
+      <c r="R30">
+        <v>12313.07759320789</v>
+      </c>
+      <c r="S30">
+        <v>0.004316162464348488</v>
+      </c>
+      <c r="T30">
+        <v>0.004316162464348489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.723214</v>
+      </c>
+      <c r="H31">
+        <v>44.169642</v>
+      </c>
+      <c r="I31">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J31">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>150.2174506666667</v>
+      </c>
+      <c r="N31">
+        <v>450.652352</v>
+      </c>
+      <c r="O31">
+        <v>0.4639645390083261</v>
+      </c>
+      <c r="P31">
+        <v>0.4639645390083262</v>
+      </c>
+      <c r="Q31">
+        <v>2211.683672699776</v>
+      </c>
+      <c r="R31">
+        <v>19905.15305429799</v>
+      </c>
+      <c r="S31">
+        <v>0.006977449285909174</v>
+      </c>
+      <c r="T31">
+        <v>0.006977449285909175</v>
       </c>
     </row>
   </sheetData>
